--- a/Trackers/FoodIndulgentDB.xlsx
+++ b/Trackers/FoodIndulgentDB.xlsx
@@ -1,20 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Calvin\Documents\TrackerCS\Trackers\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76835A8B-EC4D-4DF1-AAC6-D4B3CAB6B978}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="FoodIndulgent" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
   <si>
     <t>Date</t>
   </si>
@@ -31,16 +37,10 @@
     <t>2024-09-21</t>
   </si>
   <si>
-    <t>2024-09-22</t>
-  </si>
-  <si>
     <t>Cake</t>
   </si>
   <si>
     <t>Cookies</t>
-  </si>
-  <si>
-    <t>nan</t>
   </si>
   <si>
     <t>Tom Thumb</t>
@@ -58,8 +58,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -122,13 +122,21 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -166,7 +174,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -200,6 +208,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -234,9 +243,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -409,14 +419,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -430,51 +442,32 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" t="s">
         <v>9</v>
       </c>
-      <c r="D2" t="s">
-        <v>11</v>
-      </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" t="s">
         <v>10</v>
-      </c>
-      <c r="D3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" t="s">
-        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/Trackers/FoodIndulgentDB.xlsx
+++ b/Trackers/FoodIndulgentDB.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Calvin\Documents\TrackerCS\Trackers\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76835A8B-EC4D-4DF1-AAC6-D4B3CAB6B978}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE70E46F-95D0-42FF-BDB3-47BB767BAE0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="9">
   <si>
     <t>Date</t>
   </si>
@@ -34,31 +34,28 @@
     <t>Cost</t>
   </si>
   <si>
-    <t>2024-09-21</t>
-  </si>
-  <si>
     <t>Cake</t>
   </si>
   <si>
     <t>Cookies</t>
   </si>
   <si>
+    <t>Rolls</t>
+  </si>
+  <si>
     <t>Tom Thumb</t>
   </si>
   <si>
     <t>Target</t>
-  </si>
-  <si>
-    <t>2.0</t>
-  </si>
-  <si>
-    <t>6.0</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -111,11 +108,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -420,13 +418,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18.28515625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
@@ -443,31 +444,59 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="A2" s="2">
+        <v>45556</v>
+      </c>
+      <c r="B2" t="s">
         <v>4</v>
-      </c>
-      <c r="B2" t="s">
-        <v>5</v>
       </c>
       <c r="C2" t="s">
         <v>7</v>
       </c>
-      <c r="D2" t="s">
-        <v>9</v>
+      <c r="D2">
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>4</v>
+      <c r="A3" s="2">
+        <v>45556</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C3" t="s">
         <v>8</v>
       </c>
-      <c r="D3" t="s">
-        <v>10</v>
+      <c r="D3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
+        <v>45557</v>
+      </c>
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
+        <v>45558</v>
+      </c>
+      <c r="B5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5">
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/Trackers/FoodIndulgentDB.xlsx
+++ b/Trackers/FoodIndulgentDB.xlsx
@@ -1,26 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27928"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Calvin\Documents\TrackerCS\Trackers\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE70E46F-95D0-42FF-BDB3-47BB767BAE0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="FoodIndulgent" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="8">
   <si>
     <t>Date</t>
   </si>
@@ -29,9 +23,6 @@
   </si>
   <si>
     <t>Merchant</t>
-  </si>
-  <si>
-    <t>Cost</t>
   </si>
   <si>
     <t>Cake</t>
@@ -52,11 +43,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
+    <numFmt numFmtId="164" formatCode="YYYY-MM-DD"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -120,21 +111,13 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -172,7 +155,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -206,7 +189,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -241,10 +223,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -417,19 +398,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="18.28515625" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -439,63 +415,59 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:3">
       <c r="A2" s="2">
         <v>45556</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
       <c r="A3" s="2">
         <v>45556</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
       <c r="A4" s="2">
         <v>45557</v>
       </c>
       <c r="B4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
       <c r="A5" s="2">
         <v>45558</v>
       </c>
       <c r="B5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" t="s">
         <v>6</v>
       </c>
-      <c r="C5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D5">
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="2">
+        <v>45559</v>
+      </c>
+      <c r="B6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" t="s">
         <v>6</v>
       </c>
     </row>
